--- a/text.xlsx
+++ b/text.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py project\OS_RGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учёба\PyProject\OS_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A2:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,17 +378,17 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
@@ -397,19 +397,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>

--- a/text.xlsx
+++ b/text.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учёба\PyProject\OS_RGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py project\OS_RGR\OS_RGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -59,12 +59,6 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -78,11 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -363,26 +356,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q3"/>
+  <dimension ref="A2:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -391,27 +384,59 @@
       <c r="O2" s="2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
